--- a/Team-Data/2012-13/11-8-2012-13.xlsx
+++ b/Team-Data/2012-13/11-8-2012-13.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -747,13 +814,13 @@
         <v>25</v>
       </c>
       <c r="AE2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF2" t="n">
         <v>2</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH2" t="n">
         <v>7</v>
@@ -768,7 +835,7 @@
         <v>6</v>
       </c>
       <c r="AL2" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AM2" t="n">
         <v>5</v>
@@ -789,10 +856,10 @@
         <v>14</v>
       </c>
       <c r="AS2" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AT2" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AU2" t="n">
         <v>12</v>
@@ -816,7 +883,7 @@
         <v>27</v>
       </c>
       <c r="BB2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BC2" t="n">
         <v>11</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>11-8-2012-13</t>
+          <t>2012-11-08</t>
         </is>
       </c>
     </row>
@@ -926,16 +993,16 @@
         <v>-3.8</v>
       </c>
       <c r="AD3" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AE3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH3" t="n">
         <v>4</v>
@@ -947,7 +1014,7 @@
         <v>25</v>
       </c>
       <c r="AK3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AL3" t="n">
         <v>24</v>
@@ -956,7 +1023,7 @@
         <v>26</v>
       </c>
       <c r="AN3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AO3" t="n">
         <v>9</v>
@@ -974,22 +1041,22 @@
         <v>9</v>
       </c>
       <c r="AT3" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AU3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AV3" t="n">
         <v>16</v>
       </c>
       <c r="AW3" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AX3" t="n">
         <v>24</v>
       </c>
       <c r="AY3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AZ3" t="n">
         <v>6</v>
@@ -998,7 +1065,7 @@
         <v>19</v>
       </c>
       <c r="BB3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BC3" t="n">
         <v>22</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>11-8-2012-13</t>
+          <t>2012-11-08</t>
         </is>
       </c>
     </row>
@@ -1114,7 +1181,7 @@
         <v>25</v>
       </c>
       <c r="AF4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG4" t="n">
         <v>25</v>
@@ -1123,7 +1190,7 @@
         <v>7</v>
       </c>
       <c r="AI4" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AJ4" t="n">
         <v>26</v>
@@ -1132,13 +1199,13 @@
         <v>18</v>
       </c>
       <c r="AL4" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AM4" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AN4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AO4" t="n">
         <v>14</v>
@@ -1177,7 +1244,7 @@
         <v>4</v>
       </c>
       <c r="BA4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BB4" t="n">
         <v>26</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>11-8-2012-13</t>
+          <t>2012-11-08</t>
         </is>
       </c>
     </row>
@@ -1296,7 +1363,7 @@
         <v>25</v>
       </c>
       <c r="AF5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG5" t="n">
         <v>25</v>
@@ -1308,7 +1375,7 @@
         <v>17</v>
       </c>
       <c r="AJ5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AK5" t="n">
         <v>26</v>
@@ -1317,28 +1384,28 @@
         <v>16</v>
       </c>
       <c r="AM5" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AN5" t="n">
         <v>16</v>
       </c>
       <c r="AO5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AP5" t="n">
         <v>8</v>
       </c>
       <c r="AQ5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AR5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AS5" t="n">
         <v>29</v>
       </c>
       <c r="AT5" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AU5" t="n">
         <v>19</v>
@@ -1350,7 +1417,7 @@
         <v>10</v>
       </c>
       <c r="AX5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY5" t="n">
         <v>26</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>11-8-2012-13</t>
+          <t>2012-11-08</t>
         </is>
       </c>
     </row>
@@ -1394,106 +1461,106 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E6" t="n">
         <v>3</v>
       </c>
       <c r="F6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="H6" t="n">
         <v>48</v>
       </c>
       <c r="I6" t="n">
-        <v>36.2</v>
+        <v>36.5</v>
       </c>
       <c r="J6" t="n">
-        <v>80.8</v>
+        <v>80</v>
       </c>
       <c r="K6" t="n">
-        <v>0.448</v>
+        <v>0.456</v>
       </c>
       <c r="L6" t="n">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="M6" t="n">
-        <v>11.4</v>
+        <v>10.5</v>
       </c>
       <c r="N6" t="n">
-        <v>0.281</v>
+        <v>0.262</v>
       </c>
       <c r="O6" t="n">
-        <v>20.4</v>
+        <v>21.5</v>
       </c>
       <c r="P6" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.785</v>
+        <v>0.768</v>
       </c>
       <c r="R6" t="n">
-        <v>11</v>
+        <v>10.8</v>
       </c>
       <c r="S6" t="n">
-        <v>31.4</v>
+        <v>32</v>
       </c>
       <c r="T6" t="n">
-        <v>42.4</v>
+        <v>42.8</v>
       </c>
       <c r="U6" t="n">
-        <v>25</v>
+        <v>25.8</v>
       </c>
       <c r="V6" t="n">
-        <v>15.4</v>
+        <v>14</v>
       </c>
       <c r="W6" t="n">
-        <v>7.8</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="X6" t="n">
-        <v>6</v>
+        <v>6.8</v>
       </c>
       <c r="Y6" t="n">
-        <v>5.6</v>
+        <v>5</v>
       </c>
       <c r="Z6" t="n">
-        <v>18.2</v>
+        <v>18</v>
       </c>
       <c r="AA6" t="n">
-        <v>23.2</v>
+        <v>24.3</v>
       </c>
       <c r="AB6" t="n">
-        <v>96</v>
+        <v>97.3</v>
       </c>
       <c r="AC6" t="n">
-        <v>5.6</v>
+        <v>8.5</v>
       </c>
       <c r="AD6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF6" t="n">
         <v>2</v>
       </c>
-      <c r="AE6" t="n">
+      <c r="AG6" t="n">
         <v>5</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>9</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>10</v>
       </c>
       <c r="AH6" t="n">
         <v>7</v>
       </c>
       <c r="AI6" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AJ6" t="n">
         <v>20</v>
       </c>
       <c r="AK6" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AL6" t="n">
         <v>30</v>
@@ -1502,53 +1569,53 @@
         <v>30</v>
       </c>
       <c r="AN6" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AO6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AP6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AQ6" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AR6" t="n">
         <v>19</v>
       </c>
       <c r="AS6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW6" t="n">
         <v>14</v>
       </c>
-      <c r="AT6" t="n">
-        <v>16</v>
-      </c>
-      <c r="AU6" t="n">
+      <c r="AX6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>14</v>
+      </c>
+      <c r="BC6" t="n">
         <v>4</v>
       </c>
-      <c r="AV6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>17</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>10</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>4</v>
-      </c>
-      <c r="BB6" t="n">
-        <v>20</v>
-      </c>
-      <c r="BC6" t="n">
-        <v>7</v>
-      </c>
       <c r="BD6" t="n">
         <v>10</v>
       </c>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>11-8-2012-13</t>
+          <t>2012-11-08</t>
         </is>
       </c>
     </row>
@@ -1654,22 +1721,22 @@
         <v>-5</v>
       </c>
       <c r="AD7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG7" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AH7" t="n">
         <v>7</v>
       </c>
       <c r="AI7" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AJ7" t="n">
         <v>15</v>
@@ -1696,13 +1763,13 @@
         <v>30</v>
       </c>
       <c r="AR7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AS7" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AT7" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AU7" t="n">
         <v>18</v>
@@ -1726,10 +1793,10 @@
         <v>11</v>
       </c>
       <c r="BB7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BC7" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>11-8-2012-13</t>
+          <t>2012-11-08</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1903,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AD8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE8" t="n">
         <v>1</v>
@@ -1872,25 +1939,25 @@
         <v>20</v>
       </c>
       <c r="AP8" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AQ8" t="n">
         <v>25</v>
       </c>
       <c r="AR8" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AS8" t="n">
         <v>7</v>
       </c>
       <c r="AT8" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AU8" t="n">
         <v>5</v>
       </c>
       <c r="AV8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AW8" t="n">
         <v>17</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>11-8-2012-13</t>
+          <t>2012-11-08</t>
         </is>
       </c>
     </row>
@@ -2018,25 +2085,25 @@
         <v>-1.4</v>
       </c>
       <c r="AD9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF9" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG9" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AH9" t="n">
         <v>7</v>
       </c>
       <c r="AI9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AJ9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK9" t="n">
         <v>19</v>
@@ -2045,7 +2112,7 @@
         <v>17</v>
       </c>
       <c r="AM9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AN9" t="n">
         <v>26</v>
@@ -2084,13 +2151,13 @@
         <v>24</v>
       </c>
       <c r="AZ9" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BA9" t="n">
         <v>23</v>
       </c>
       <c r="BB9" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BC9" t="n">
         <v>16</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>11-8-2012-13</t>
+          <t>2012-11-08</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2267,7 @@
         <v>-11</v>
       </c>
       <c r="AD10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE10" t="n">
         <v>29</v>
@@ -2215,7 +2282,7 @@
         <v>7</v>
       </c>
       <c r="AI10" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AJ10" t="n">
         <v>21</v>
@@ -2230,7 +2297,7 @@
         <v>27</v>
       </c>
       <c r="AN10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO10" t="n">
         <v>10</v>
@@ -2239,7 +2306,7 @@
         <v>9</v>
       </c>
       <c r="AQ10" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AR10" t="n">
         <v>21</v>
@@ -2251,13 +2318,13 @@
         <v>30</v>
       </c>
       <c r="AU10" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AV10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AW10" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AX10" t="n">
         <v>13</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>11-8-2012-13</t>
+          <t>2012-11-08</t>
         </is>
       </c>
     </row>
@@ -2382,13 +2449,13 @@
         <v>0.8</v>
       </c>
       <c r="AD11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AF11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG11" t="n">
         <v>10</v>
@@ -2397,13 +2464,13 @@
         <v>7</v>
       </c>
       <c r="AI11" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AJ11" t="n">
         <v>19</v>
       </c>
       <c r="AK11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL11" t="n">
         <v>21</v>
@@ -2418,19 +2485,19 @@
         <v>8</v>
       </c>
       <c r="AP11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AQ11" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AR11" t="n">
         <v>18</v>
       </c>
       <c r="AS11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AT11" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AU11" t="n">
         <v>13</v>
@@ -2445,7 +2512,7 @@
         <v>27</v>
       </c>
       <c r="AY11" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ11" t="n">
         <v>25</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>11-8-2012-13</t>
+          <t>2012-11-08</t>
         </is>
       </c>
     </row>
@@ -2564,16 +2631,16 @@
         <v>0</v>
       </c>
       <c r="AD12" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AE12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH12" t="n">
         <v>4</v>
@@ -2582,7 +2649,7 @@
         <v>19</v>
       </c>
       <c r="AJ12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AK12" t="n">
         <v>27</v>
@@ -2594,7 +2661,7 @@
         <v>2</v>
       </c>
       <c r="AN12" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AO12" t="n">
         <v>12</v>
@@ -2603,7 +2670,7 @@
         <v>14</v>
       </c>
       <c r="AQ12" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AR12" t="n">
         <v>2</v>
@@ -2615,7 +2682,7 @@
         <v>2</v>
       </c>
       <c r="AU12" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AV12" t="n">
         <v>30</v>
@@ -2636,7 +2703,7 @@
         <v>24</v>
       </c>
       <c r="BB12" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BC12" t="n">
         <v>14</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>11-8-2012-13</t>
+          <t>2012-11-08</t>
         </is>
       </c>
     </row>
@@ -2746,22 +2813,22 @@
         <v>-3.2</v>
       </c>
       <c r="AD13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF13" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG13" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AH13" t="n">
         <v>1</v>
       </c>
       <c r="AI13" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AJ13" t="n">
         <v>12</v>
@@ -2803,7 +2870,7 @@
         <v>29</v>
       </c>
       <c r="AW13" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AX13" t="n">
         <v>2</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>11-8-2012-13</t>
+          <t>2012-11-08</t>
         </is>
       </c>
     </row>
@@ -2850,100 +2917,100 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F14" t="n">
         <v>2</v>
       </c>
       <c r="G14" t="n">
-        <v>0.667</v>
+        <v>0.6</v>
       </c>
       <c r="H14" t="n">
         <v>48</v>
       </c>
       <c r="I14" t="n">
-        <v>38.7</v>
+        <v>38.2</v>
       </c>
       <c r="J14" t="n">
         <v>77</v>
       </c>
       <c r="K14" t="n">
-        <v>0.502</v>
+        <v>0.496</v>
       </c>
       <c r="L14" t="n">
-        <v>6.8</v>
+        <v>7.6</v>
       </c>
       <c r="M14" t="n">
-        <v>18.8</v>
+        <v>20</v>
       </c>
       <c r="N14" t="n">
-        <v>0.363</v>
+        <v>0.38</v>
       </c>
       <c r="O14" t="n">
-        <v>20.2</v>
+        <v>20.6</v>
       </c>
       <c r="P14" t="n">
-        <v>26.3</v>
+        <v>26.6</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.766</v>
+        <v>0.774</v>
       </c>
       <c r="R14" t="n">
-        <v>8.699999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="S14" t="n">
-        <v>30.8</v>
+        <v>30.2</v>
       </c>
       <c r="T14" t="n">
-        <v>39.5</v>
+        <v>38.6</v>
       </c>
       <c r="U14" t="n">
-        <v>23.8</v>
+        <v>24.6</v>
       </c>
       <c r="V14" t="n">
-        <v>17.3</v>
+        <v>18</v>
       </c>
       <c r="W14" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="X14" t="n">
-        <v>7</v>
+        <v>7.8</v>
       </c>
       <c r="Y14" t="n">
         <v>3.8</v>
       </c>
       <c r="Z14" t="n">
-        <v>24.8</v>
+        <v>25.4</v>
       </c>
       <c r="AA14" t="n">
         <v>22.2</v>
       </c>
       <c r="AB14" t="n">
-        <v>104.3</v>
+        <v>104.6</v>
       </c>
       <c r="AC14" t="n">
-        <v>7.2</v>
+        <v>6</v>
       </c>
       <c r="AD14" t="n">
         <v>1</v>
       </c>
       <c r="AE14" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AF14" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG14" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AH14" t="n">
         <v>7</v>
       </c>
       <c r="AI14" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AJ14" t="n">
         <v>27</v>
@@ -2952,58 +3019,58 @@
         <v>3</v>
       </c>
       <c r="AL14" t="n">
+        <v>9</v>
+      </c>
+      <c r="AM14" t="n">
         <v>13</v>
       </c>
-      <c r="AM14" t="n">
-        <v>17</v>
-      </c>
       <c r="AN14" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AO14" t="n">
         <v>6</v>
       </c>
       <c r="AP14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AQ14" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AR14" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AS14" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AT14" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AU14" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AV14" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AW14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX14" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>29</v>
+      </c>
+      <c r="BA14" t="n">
         <v>8</v>
-      </c>
-      <c r="AY14" t="n">
-        <v>6</v>
-      </c>
-      <c r="AZ14" t="n">
-        <v>28</v>
-      </c>
-      <c r="BA14" t="n">
-        <v>7</v>
       </c>
       <c r="BB14" t="n">
         <v>4</v>
       </c>
       <c r="BC14" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>11-8-2012-13</t>
+          <t>2012-11-08</t>
         </is>
       </c>
     </row>
@@ -3110,7 +3177,7 @@
         <v>-1.6</v>
       </c>
       <c r="AD15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE15" t="n">
         <v>25</v>
@@ -3167,7 +3234,7 @@
         <v>28</v>
       </c>
       <c r="AW15" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AX15" t="n">
         <v>20</v>
@@ -3179,10 +3246,10 @@
         <v>23</v>
       </c>
       <c r="BA15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BB15" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BC15" t="n">
         <v>17</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>11-8-2012-13</t>
+          <t>2012-11-08</t>
         </is>
       </c>
     </row>
@@ -3292,10 +3359,10 @@
         <v>7</v>
       </c>
       <c r="AD16" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AE16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AF16" t="n">
         <v>2</v>
@@ -3328,13 +3395,13 @@
         <v>2</v>
       </c>
       <c r="AP16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AQ16" t="n">
         <v>7</v>
       </c>
       <c r="AR16" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AS16" t="n">
         <v>5</v>
@@ -3346,7 +3413,7 @@
         <v>8</v>
       </c>
       <c r="AV16" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AW16" t="n">
         <v>5</v>
@@ -3358,7 +3425,7 @@
         <v>27</v>
       </c>
       <c r="AZ16" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BA16" t="n">
         <v>5</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>11-8-2012-13</t>
+          <t>2012-11-08</t>
         </is>
       </c>
     </row>
@@ -3474,7 +3541,7 @@
         <v>10.2</v>
       </c>
       <c r="AD17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE17" t="n">
         <v>1</v>
@@ -3510,10 +3577,10 @@
         <v>13</v>
       </c>
       <c r="AP17" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AQ17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AR17" t="n">
         <v>29</v>
@@ -3525,7 +3592,7 @@
         <v>23</v>
       </c>
       <c r="AU17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV17" t="n">
         <v>4</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>11-8-2012-13</t>
+          <t>2012-11-08</t>
         </is>
       </c>
     </row>
@@ -3659,13 +3726,13 @@
         <v>25</v>
       </c>
       <c r="AE18" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF18" t="n">
         <v>2</v>
       </c>
       <c r="AG18" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH18" t="n">
         <v>7</v>
@@ -3677,13 +3744,13 @@
         <v>10</v>
       </c>
       <c r="AK18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AL18" t="n">
         <v>8</v>
       </c>
       <c r="AM18" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AN18" t="n">
         <v>6</v>
@@ -3704,19 +3771,19 @@
         <v>15</v>
       </c>
       <c r="AT18" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AU18" t="n">
         <v>1</v>
       </c>
       <c r="AV18" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AW18" t="n">
         <v>3</v>
       </c>
       <c r="AX18" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY18" t="n">
         <v>3</v>
@@ -3728,7 +3795,7 @@
         <v>15</v>
       </c>
       <c r="BB18" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BC18" t="n">
         <v>15</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>11-8-2012-13</t>
+          <t>2012-11-08</t>
         </is>
       </c>
     </row>
@@ -3838,10 +3905,10 @@
         <v>4.8</v>
       </c>
       <c r="AD19" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AE19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AF19" t="n">
         <v>2</v>
@@ -3874,7 +3941,7 @@
         <v>11</v>
       </c>
       <c r="AP19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AQ19" t="n">
         <v>22</v>
@@ -3883,19 +3950,19 @@
         <v>6</v>
       </c>
       <c r="AS19" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AT19" t="n">
         <v>7</v>
       </c>
       <c r="AU19" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AV19" t="n">
         <v>21</v>
       </c>
       <c r="AW19" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AX19" t="n">
         <v>3</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>11-8-2012-13</t>
+          <t>2012-11-08</t>
         </is>
       </c>
     </row>
@@ -4020,16 +4087,16 @@
         <v>-2.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AE20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF20" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG20" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH20" t="n">
         <v>7</v>
@@ -4041,7 +4108,7 @@
         <v>28</v>
       </c>
       <c r="AK20" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL20" t="n">
         <v>29</v>
@@ -4050,7 +4117,7 @@
         <v>25</v>
       </c>
       <c r="AN20" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AO20" t="n">
         <v>19</v>
@@ -4068,7 +4135,7 @@
         <v>3</v>
       </c>
       <c r="AT20" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AU20" t="n">
         <v>22</v>
@@ -4080,7 +4147,7 @@
         <v>23</v>
       </c>
       <c r="AX20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AY20" t="n">
         <v>21</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>11-8-2012-13</t>
+          <t>2012-11-08</t>
         </is>
       </c>
     </row>
@@ -4205,7 +4272,7 @@
         <v>25</v>
       </c>
       <c r="AE21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AF21" t="n">
         <v>1</v>
@@ -4241,7 +4308,7 @@
         <v>27</v>
       </c>
       <c r="AQ21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AR21" t="n">
         <v>22</v>
@@ -4250,7 +4317,7 @@
         <v>15</v>
       </c>
       <c r="AT21" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AU21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>11-8-2012-13</t>
+          <t>2012-11-08</t>
         </is>
       </c>
     </row>
@@ -4306,100 +4373,100 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22" t="n">
         <v>2</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H22" t="n">
         <v>48</v>
       </c>
       <c r="I22" t="n">
-        <v>34.4</v>
+        <v>34</v>
       </c>
       <c r="J22" t="n">
-        <v>74.2</v>
+        <v>74.5</v>
       </c>
       <c r="K22" t="n">
-        <v>0.464</v>
+        <v>0.456</v>
       </c>
       <c r="L22" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="M22" t="n">
-        <v>17.2</v>
+        <v>18.3</v>
       </c>
       <c r="N22" t="n">
-        <v>0.407</v>
+        <v>0.411</v>
       </c>
       <c r="O22" t="n">
-        <v>22.2</v>
+        <v>22.8</v>
       </c>
       <c r="P22" t="n">
-        <v>26.4</v>
+        <v>27.8</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.841</v>
+        <v>0.82</v>
       </c>
       <c r="R22" t="n">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="S22" t="n">
-        <v>34.8</v>
+        <v>36</v>
       </c>
       <c r="T22" t="n">
-        <v>43.2</v>
+        <v>44.5</v>
       </c>
       <c r="U22" t="n">
-        <v>22</v>
+        <v>21.8</v>
       </c>
       <c r="V22" t="n">
-        <v>18.4</v>
+        <v>17.5</v>
       </c>
       <c r="W22" t="n">
-        <v>6.4</v>
+        <v>5.5</v>
       </c>
       <c r="X22" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="Y22" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="Z22" t="n">
-        <v>20.8</v>
+        <v>21.3</v>
       </c>
       <c r="AA22" t="n">
-        <v>21.8</v>
+        <v>22.5</v>
       </c>
       <c r="AB22" t="n">
-        <v>98</v>
+        <v>98.3</v>
       </c>
       <c r="AC22" t="n">
         <v>5.8</v>
       </c>
       <c r="AD22" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="AE22" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AF22" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG22" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AH22" t="n">
         <v>7</v>
       </c>
       <c r="AI22" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AJ22" t="n">
         <v>29</v>
@@ -4408,10 +4475,10 @@
         <v>8</v>
       </c>
       <c r="AL22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM22" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AN22" t="n">
         <v>5</v>
@@ -4423,25 +4490,25 @@
         <v>3</v>
       </c>
       <c r="AQ22" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AR22" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AS22" t="n">
         <v>2</v>
       </c>
       <c r="AT22" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AU22" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AV22" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AW22" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AX22" t="n">
         <v>4</v>
@@ -4450,16 +4517,16 @@
         <v>1</v>
       </c>
       <c r="AZ22" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BA22" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BB22" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BC22" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BD22" t="n">
         <v>10</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>11-8-2012-13</t>
+          <t>2012-11-08</t>
         </is>
       </c>
     </row>
@@ -4566,16 +4633,16 @@
         <v>3.3</v>
       </c>
       <c r="AD23" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AE23" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF23" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG23" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH23" t="n">
         <v>7</v>
@@ -4605,7 +4672,7 @@
         <v>25</v>
       </c>
       <c r="AQ23" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AR23" t="n">
         <v>16</v>
@@ -4614,7 +4681,7 @@
         <v>10</v>
       </c>
       <c r="AT23" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AU23" t="n">
         <v>11</v>
@@ -4623,7 +4690,7 @@
         <v>7</v>
       </c>
       <c r="AW23" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AX23" t="n">
         <v>18</v>
@@ -4632,13 +4699,13 @@
         <v>27</v>
       </c>
       <c r="AZ23" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BA23" t="n">
         <v>29</v>
       </c>
       <c r="BB23" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BC23" t="n">
         <v>9</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>11-8-2012-13</t>
+          <t>2012-11-08</t>
         </is>
       </c>
     </row>
@@ -4748,16 +4815,16 @@
         <v>-3.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AE24" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF24" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG24" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH24" t="n">
         <v>7</v>
@@ -4790,7 +4857,7 @@
         <v>8</v>
       </c>
       <c r="AR24" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AS24" t="n">
         <v>5</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>11-8-2012-13</t>
+          <t>2012-11-08</t>
         </is>
       </c>
     </row>
@@ -4930,16 +4997,16 @@
         <v>-7.6</v>
       </c>
       <c r="AD25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE25" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF25" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG25" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AH25" t="n">
         <v>7</v>
@@ -4948,7 +5015,7 @@
         <v>8</v>
       </c>
       <c r="AJ25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK25" t="n">
         <v>21</v>
@@ -4957,16 +5024,16 @@
         <v>21</v>
       </c>
       <c r="AM25" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AN25" t="n">
         <v>23</v>
       </c>
       <c r="AO25" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AP25" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AQ25" t="n">
         <v>24</v>
@@ -4975,7 +5042,7 @@
         <v>3</v>
       </c>
       <c r="AS25" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AT25" t="n">
         <v>6</v>
@@ -4984,16 +5051,16 @@
         <v>20</v>
       </c>
       <c r="AV25" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AW25" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AX25" t="n">
         <v>1</v>
       </c>
       <c r="AY25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AZ25" t="n">
         <v>19</v>
@@ -5002,7 +5069,7 @@
         <v>16</v>
       </c>
       <c r="BB25" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BC25" t="n">
         <v>27</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>11-8-2012-13</t>
+          <t>2012-11-08</t>
         </is>
       </c>
     </row>
@@ -5034,133 +5101,133 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E26" t="n">
         <v>2</v>
       </c>
       <c r="F26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="H26" t="n">
-        <v>49</v>
+        <v>49.3</v>
       </c>
       <c r="I26" t="n">
-        <v>36.2</v>
+        <v>37.3</v>
       </c>
       <c r="J26" t="n">
-        <v>86.59999999999999</v>
+        <v>89.5</v>
       </c>
       <c r="K26" t="n">
-        <v>0.418</v>
+        <v>0.416</v>
       </c>
       <c r="L26" t="n">
-        <v>8</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="M26" t="n">
-        <v>22.4</v>
+        <v>23</v>
       </c>
       <c r="N26" t="n">
-        <v>0.357</v>
+        <v>0.359</v>
       </c>
       <c r="O26" t="n">
-        <v>16.4</v>
+        <v>15.8</v>
       </c>
       <c r="P26" t="n">
-        <v>22.4</v>
+        <v>20.5</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.732</v>
+        <v>0.768</v>
       </c>
       <c r="R26" t="n">
-        <v>12.6</v>
+        <v>13.5</v>
       </c>
       <c r="S26" t="n">
-        <v>28.6</v>
+        <v>30.3</v>
       </c>
       <c r="T26" t="n">
-        <v>41.2</v>
+        <v>43.8</v>
       </c>
       <c r="U26" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="V26" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="W26" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X26" t="n">
         <v>4</v>
       </c>
       <c r="Y26" t="n">
-        <v>4.8</v>
+        <v>5.3</v>
       </c>
       <c r="Z26" t="n">
-        <v>19.6</v>
+        <v>19</v>
       </c>
       <c r="AA26" t="n">
-        <v>20.8</v>
+        <v>20.5</v>
       </c>
       <c r="AB26" t="n">
-        <v>96.8</v>
+        <v>98.5</v>
       </c>
       <c r="AC26" t="n">
-        <v>-6</v>
+        <v>-4.3</v>
       </c>
       <c r="AD26" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="AE26" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF26" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AG26" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="AH26" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AI26" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AJ26" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AK26" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AL26" t="n">
         <v>5</v>
       </c>
       <c r="AM26" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AN26" t="n">
         <v>13</v>
       </c>
       <c r="AO26" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP26" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AQ26" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AR26" t="n">
+        <v>6</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>21</v>
+      </c>
+      <c r="AT26" t="n">
         <v>12</v>
-      </c>
-      <c r="AS26" t="n">
-        <v>26</v>
-      </c>
-      <c r="AT26" t="n">
-        <v>22</v>
       </c>
       <c r="AU26" t="n">
         <v>25</v>
@@ -5169,25 +5236,25 @@
         <v>5</v>
       </c>
       <c r="AW26" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AX26" t="n">
         <v>22</v>
       </c>
       <c r="AY26" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AZ26" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BA26" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BB26" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="BC26" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>11-8-2012-13</t>
+          <t>2012-11-08</t>
         </is>
       </c>
     </row>
@@ -5294,16 +5361,16 @@
         <v>-4.4</v>
       </c>
       <c r="AD27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE27" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF27" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG27" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AH27" t="n">
         <v>1</v>
@@ -5312,7 +5379,7 @@
         <v>17</v>
       </c>
       <c r="AJ27" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AK27" t="n">
         <v>25</v>
@@ -5321,7 +5388,7 @@
         <v>25</v>
       </c>
       <c r="AM27" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AN27" t="n">
         <v>22</v>
@@ -5333,16 +5400,16 @@
         <v>23</v>
       </c>
       <c r="AQ27" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AR27" t="n">
         <v>13</v>
       </c>
       <c r="AS27" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AT27" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AU27" t="n">
         <v>30</v>
@@ -5354,7 +5421,7 @@
         <v>8</v>
       </c>
       <c r="AX27" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AY27" t="n">
         <v>30</v>
@@ -5369,7 +5436,7 @@
         <v>24</v>
       </c>
       <c r="BC27" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BD27" t="n">
         <v>10</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>11-8-2012-13</t>
+          <t>2012-11-08</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>3.2</v>
       </c>
       <c r="AD28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE28" t="n">
         <v>1</v>
@@ -5491,7 +5558,7 @@
         <v>7</v>
       </c>
       <c r="AI28" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ28" t="n">
         <v>24</v>
@@ -5506,7 +5573,7 @@
         <v>18</v>
       </c>
       <c r="AN28" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO28" t="n">
         <v>22</v>
@@ -5521,16 +5588,16 @@
         <v>28</v>
       </c>
       <c r="AS28" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AT28" t="n">
         <v>28</v>
       </c>
       <c r="AU28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV28" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AW28" t="n">
         <v>11</v>
@@ -5548,7 +5615,7 @@
         <v>16</v>
       </c>
       <c r="BB28" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BC28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>11-8-2012-13</t>
+          <t>2012-11-08</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>-3</v>
       </c>
       <c r="AD29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE29" t="n">
         <v>25</v>
@@ -5682,7 +5749,7 @@
         <v>24</v>
       </c>
       <c r="AL29" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AM29" t="n">
         <v>9</v>
@@ -5697,7 +5764,7 @@
         <v>13</v>
       </c>
       <c r="AQ29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR29" t="n">
         <v>15</v>
@@ -5706,10 +5773,10 @@
         <v>27</v>
       </c>
       <c r="AT29" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AU29" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AV29" t="n">
         <v>3</v>
@@ -5724,13 +5791,13 @@
         <v>24</v>
       </c>
       <c r="AZ29" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BA29" t="n">
         <v>21</v>
       </c>
       <c r="BB29" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BC29" t="n">
         <v>19</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>11-8-2012-13</t>
+          <t>2012-11-08</t>
         </is>
       </c>
     </row>
@@ -5840,16 +5907,16 @@
         <v>1.4</v>
       </c>
       <c r="AD30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE30" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF30" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG30" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AH30" t="n">
         <v>7</v>
@@ -5867,43 +5934,43 @@
         <v>20</v>
       </c>
       <c r="AM30" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AN30" t="n">
         <v>14</v>
       </c>
       <c r="AO30" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP30" t="n">
         <v>16</v>
       </c>
-      <c r="AP30" t="n">
-        <v>17</v>
-      </c>
       <c r="AQ30" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AR30" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AS30" t="n">
         <v>22</v>
       </c>
       <c r="AT30" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AU30" t="n">
         <v>20</v>
       </c>
       <c r="AV30" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AW30" t="n">
         <v>7</v>
       </c>
       <c r="AX30" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AY30" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AZ30" t="n">
         <v>27</v>
@@ -5912,7 +5979,7 @@
         <v>21</v>
       </c>
       <c r="BB30" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BC30" t="n">
         <v>12</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>11-8-2012-13</t>
+          <t>2012-11-08</t>
         </is>
       </c>
     </row>
@@ -6028,7 +6095,7 @@
         <v>29</v>
       </c>
       <c r="AF31" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG31" t="n">
         <v>29</v>
@@ -6040,13 +6107,13 @@
         <v>22</v>
       </c>
       <c r="AJ31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AK31" t="n">
         <v>29</v>
       </c>
       <c r="AL31" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AM31" t="n">
         <v>3</v>
@@ -6070,7 +6137,7 @@
         <v>15</v>
       </c>
       <c r="AT31" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AU31" t="n">
         <v>9</v>
@@ -6082,7 +6149,7 @@
         <v>12</v>
       </c>
       <c r="AX31" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AY31" t="n">
         <v>8</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>11-8-2012-13</t>
+          <t>2012-11-08</t>
         </is>
       </c>
     </row>
